--- a/biology/Zoologie/Gabucinia_delibata/Gabucinia_delibata.xlsx
+++ b/biology/Zoologie/Gabucinia_delibata/Gabucinia_delibata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabucinia delibata est une espèce d'acariens de la famille des Gabuciniidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Gabucinia delibata a été initialement décrite en 1877 par le biologiste français Charles Philippe Robin (1821-1885) sous le protonyme de Pterolichus delibatus et ce dans une publication coécrite avec le vétérinaire et entomologiste français Jean Pierre Mégnin (1828-1905)[2].
-Selon les sources c'est indifféremment Robin[1] ou Mégnin[3] qui sont mentionnés mais la publication précise explicitement Robin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gabucinia delibata a été initialement décrite en 1877 par le biologiste français Charles Philippe Robin (1821-1885) sous le protonyme de Pterolichus delibatus et ce dans une publication coécrite avec le vétérinaire et entomologiste français Jean Pierre Mégnin (1828-1905).
+Selon les sources c'est indifféremment Robin ou Mégnin qui sont mentionnés mais la publication précise explicitement Robin.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabucinia delibata est un parasite des plumes retrouvé chez certains oiseaux, tels que le Crave à bec rouge et ses juvéniles[4], le Choucas des tours, la Corneille noire ou le Corbeau freux[5], ou encore chez le Canard de Barbarie.
-De forme générale ovoïde, Gabucinia delibata mesure environ 0,5 mm et est d'une couleur gris roussâtre[2]. Les larves, hexapodes et blanc grisâtre, mesurent de 0,27 à 0,30 mm et sont larges de 0,12 à 0,14 mm[2]. Les œufs mesurent 0,26 mm de longueur et 0,06 mm en largeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabucinia delibata est un parasite des plumes retrouvé chez certains oiseaux, tels que le Crave à bec rouge et ses juvéniles, le Choucas des tours, la Corneille noire ou le Corbeau freux, ou encore chez le Canard de Barbarie.
+De forme générale ovoïde, Gabucinia delibata mesure environ 0,5 mm et est d'une couleur gris roussâtre. Les larves, hexapodes et blanc grisâtre, mesurent de 0,27 à 0,30 mm et sont larges de 0,12 à 0,14 mm. Les œufs mesurent 0,26 mm de longueur et 0,06 mm en largeur.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique dérive du latin delibatus, « entamé, fendu »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique dérive du latin delibatus, « entamé, fendu ».
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ch. Robin et P. Mégnin, « Mémoire sur les Sarcoptides plumicoles - Deuxième partie », Journal de l'anatomie et de la physiologie normales et pathologiques de l'homme et des animaux, Paris, Inconnu, vol. 13,‎ 1877, p. 391-429 (OCLC 1624300, lire en ligne)</t>
         </is>
